--- a/database/xl_dir/2023_1/2023-01-10.xlsx
+++ b/database/xl_dir/2023_1/2023-01-10.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,71 +460,60 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323443</v>
+        <v>210103</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>高田悠</t>
+          <t>諏訪原慶斗</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17時28分9秒</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12時14分</t>
+          <t>15時59分</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353322</v>
+        <v>388333</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>黒野怜奈</t>
+          <t>田中</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6秒時点</t>
+          <t>30秒時点</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234567</v>
+        <v>232442</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>トゴーフーバダムツェレン</t>
+          <t>田島</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -534,23 +523,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435625</v>
+        <v>243224</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>志村</t>
+          <t>山田</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>17時28分9秒</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -560,63 +544,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210103</v>
+        <v>223452</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>諏訪原慶斗</t>
+          <t>ユニクロ</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>17時28分9秒</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>755456</v>
+        <v>422422</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>岩橋大地</t>
+          <t>真田</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
-        <v>305847</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>桃崎奏斗</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>17時28分9秒</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/xl_dir/2023_1/2023-01-10.xlsx
+++ b/database/xl_dir/2023_1/2023-01-10.xlsx
@@ -477,15 +477,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15時59分</t>
+          <t>17時42分</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>388333</v>
+        <v>219173</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>田中</t>
+          <t>浜田</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,15 +498,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30秒時点</t>
+          <t>40秒時点</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232442</v>
+        <v>732743</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>田島</t>
+          <t>山田</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -523,11 +523,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243224</v>
+        <v>739473</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>山田</t>
+          <t>歌</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -544,11 +544,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>223452</v>
+        <v>272772</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ユニクロ</t>
+          <t>田中</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -560,11 +560,11 @@
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>422422</v>
+        <v>183283</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>真田</t>
+          <t>田島</t>
         </is>
       </c>
       <c r="D7" t="n">
